--- a/data/processed/continent_wealth_df.xlsx
+++ b/data/processed/continent_wealth_df.xlsx
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>180.789157331046</v>
+        <v>176.2359797858055</v>
       </c>
       <c r="D2" t="n">
         <v>0.7782956970183611</v>
@@ -871,184 +871,184 @@
         <v>-0.2317058361264031</v>
       </c>
       <c r="P2" t="n">
-        <v>528.8471294371254</v>
+        <v>515.5281068244542</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.943589060859739</v>
+        <v>4.819084698777969</v>
       </c>
       <c r="R2" t="n">
-        <v>504.2140352747058</v>
+        <v>491.5153974952065</v>
       </c>
       <c r="S2" t="n">
-        <v>753.1956939152307</v>
+        <v>734.2264494575726</v>
       </c>
       <c r="T2" t="n">
-        <v>-248.9816586405249</v>
+        <v>-242.7110519623661</v>
       </c>
       <c r="U2" t="n">
-        <v>401.8038643010152</v>
+        <v>391.6844281604051</v>
       </c>
       <c r="V2" t="n">
-        <v>3.756006372359121</v>
+        <v>3.661411297483639</v>
       </c>
       <c r="W2" t="n">
-        <v>383.0883000609568</v>
+        <v>373.4402156767372</v>
       </c>
       <c r="X2" t="n">
-        <v>572.2578861534793</v>
+        <v>557.8455630043114</v>
       </c>
       <c r="Y2" t="n">
-        <v>-189.1695860925224</v>
+        <v>-184.4053473275742</v>
       </c>
       <c r="Z2" t="n">
-        <v>329.0355789757647</v>
+        <v>320.7488131547685</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.870732384644961</v>
+        <v>2.79843294796898</v>
       </c>
       <c r="AB2" t="n">
-        <v>315.6554488101128</v>
+        <v>307.705661761085</v>
       </c>
       <c r="AC2" t="n">
-        <v>538.2523552097095</v>
+        <v>524.6964618497665</v>
       </c>
       <c r="AD2" t="n">
-        <v>-222.5969063995967</v>
+        <v>-216.9908000886815</v>
       </c>
       <c r="AE2" t="n">
-        <v>-240.2067094566881</v>
+        <v>-234.157100000787</v>
       </c>
       <c r="AF2" t="n">
-        <v>-2.029028894332642</v>
+        <v>-1.977927772248188</v>
       </c>
       <c r="AG2" t="n">
-        <v>-221.0713511911663</v>
+        <v>-215.5036660102656</v>
       </c>
       <c r="AH2" t="n">
-        <v>-202.4524078453228</v>
+        <v>-197.3536410221927</v>
       </c>
       <c r="AI2" t="n">
-        <v>-18.6189433458435</v>
+        <v>-18.15002498807295</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-246.2715571488725</v>
+        <v>-240.0692044160237</v>
       </c>
       <c r="AK2" t="n">
-        <v>-3.661906055348484</v>
+        <v>-3.569680898319504</v>
       </c>
       <c r="AL2" t="n">
-        <v>-240.1626119956616</v>
+        <v>-234.1141131349551</v>
       </c>
       <c r="AM2" t="n">
-        <v>-1724.989226329193</v>
+        <v>-1681.545347685952</v>
       </c>
       <c r="AN2" t="n">
-        <v>1484.826614333532</v>
+        <v>1447.431234550997</v>
       </c>
       <c r="AO2" t="n">
-        <v>288.6404199804366</v>
+        <v>281.3710068236665</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.914560166527093</v>
+        <v>2.841156926529777</v>
       </c>
       <c r="AQ2" t="n">
-        <v>283.1426840835388</v>
+        <v>276.0117314849402</v>
       </c>
       <c r="AR2" t="n">
-        <v>548.2114670516621</v>
+        <v>534.40475331577</v>
       </c>
       <c r="AS2" t="n">
-        <v>-265.0687829681233</v>
+        <v>-258.3930218308297</v>
       </c>
       <c r="AT2" t="n">
-        <v>161.5971548443272</v>
+        <v>157.5273281596183</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.726977478026479</v>
+        <v>1.683483525235452</v>
       </c>
       <c r="AV2" t="n">
-        <v>162.0169488697907</v>
+        <v>157.9365496664717</v>
       </c>
       <c r="AW2" t="n">
-        <v>367.8818701261011</v>
+        <v>358.6167598999826</v>
       </c>
       <c r="AX2" t="n">
-        <v>-205.8649212563104</v>
+        <v>-200.6802102335109</v>
       </c>
       <c r="AY2" t="n">
-        <v>88.82886951907598</v>
+        <v>86.59171315398078</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.8417034903123123</v>
+        <v>0.8205051757207857</v>
       </c>
       <c r="BA2" t="n">
-        <v>94.58409761894586</v>
+        <v>92.20199575081875</v>
       </c>
       <c r="BB2" t="n">
-        <v>334.8925726348338</v>
+        <v>326.4582983437235</v>
       </c>
       <c r="BC2" t="n">
-        <v>-240.3084750158879</v>
+        <v>-234.2563025929048</v>
       </c>
       <c r="BD2" t="n">
-        <v>-486.478266605561</v>
+        <v>-474.2263044168111</v>
       </c>
       <c r="BE2" t="n">
-        <v>-5.690934949681128</v>
+        <v>-5.547608670567694</v>
       </c>
       <c r="BF2" t="n">
-        <v>-461.2339631868282</v>
+        <v>-449.617779145221</v>
       </c>
       <c r="BG2" t="n">
-        <v>-1910.676714346019</v>
+        <v>-1862.556293628287</v>
       </c>
       <c r="BH2" t="n">
-        <v>1449.44275115919</v>
+        <v>1412.938514483066</v>
       </c>
       <c r="BI2" t="n">
-        <v>42.36886283156219</v>
+        <v>41.30180240764089</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.7473458888213912</v>
+        <v>-0.7285239717897274</v>
       </c>
       <c r="BK2" t="n">
-        <v>42.98007208787541</v>
+        <v>41.89761834998341</v>
       </c>
       <c r="BL2" t="n">
-        <v>-1160.012825396875</v>
+        <v>-1130.79788559207</v>
       </c>
       <c r="BM2" t="n">
-        <v>1202.992897484751</v>
+        <v>1172.695503942054</v>
       </c>
       <c r="BN2" t="n">
-        <v>-84.67440230454611</v>
+        <v>-82.54187625640621</v>
       </c>
       <c r="BO2" t="n">
-        <v>-1.934928577322002</v>
+        <v>-1.88619737308405</v>
       </c>
       <c r="BP2" t="n">
-        <v>-78.14566312587169</v>
+        <v>-76.17756346848397</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-1340.342425698141</v>
+        <v>-1306.585882298545</v>
       </c>
       <c r="BR2" t="n">
-        <v>1262.196762572269</v>
+        <v>1230.408318830061</v>
       </c>
       <c r="BS2" t="n">
-        <v>-157.4426876297974</v>
+        <v>-153.4774912620438</v>
       </c>
       <c r="BT2" t="n">
-        <v>-2.820202565036169</v>
+        <v>-2.749175722598716</v>
       </c>
       <c r="BU2" t="n">
-        <v>-145.5785143767166</v>
+        <v>-141.9121173841371</v>
       </c>
       <c r="BV2" t="n">
-        <v>-1373.332062829395</v>
+        <v>-1338.744674940953</v>
       </c>
       <c r="BW2" t="n">
-        <v>1227.753548452678</v>
+        <v>1196.832557556816</v>
       </c>
       <c r="BX2" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>420.5017506766929</v>
+        <v>409.9114079969629</v>
       </c>
       <c r="D3" t="n">
         <v>1.725668455454326</v>
@@ -1112,184 +1112,184 @@
         <v>-5.274232834028542</v>
       </c>
       <c r="P3" t="n">
-        <v>1172.581080074619</v>
+        <v>1143.049608593764</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.23419517305756</v>
+        <v>51.89349119678383</v>
       </c>
       <c r="R3" t="n">
-        <v>1113.904167521664</v>
+        <v>1085.850474933107</v>
       </c>
       <c r="S3" t="n">
-        <v>1710.139783966968</v>
+        <v>1667.069888744642</v>
       </c>
       <c r="T3" t="n">
-        <v>-596.2356164453047</v>
+        <v>-581.2194138115357</v>
       </c>
       <c r="U3" t="n">
-        <v>890.8956538758257</v>
+        <v>868.458433932641</v>
       </c>
       <c r="V3" t="n">
-        <v>40.44591365420671</v>
+        <v>39.42728273316175</v>
       </c>
       <c r="W3" t="n">
-        <v>846.3145095399873</v>
+        <v>825.0000663624431</v>
       </c>
       <c r="X3" t="n">
-        <v>1299.318338787592</v>
+        <v>1266.594987610873</v>
       </c>
       <c r="Y3" t="n">
-        <v>-453.0038292476043</v>
+        <v>-441.5949212484304</v>
       </c>
       <c r="Z3" t="n">
-        <v>688.8987518007609</v>
+        <v>671.5488267612866</v>
       </c>
       <c r="AA3" t="n">
-        <v>21.20615272122413</v>
+        <v>20.67207545787137</v>
       </c>
       <c r="AB3" t="n">
-        <v>663.7610143747355</v>
+        <v>647.0441836163344</v>
       </c>
       <c r="AC3" t="n">
-        <v>1237.404756385152</v>
+        <v>1206.240699677759</v>
       </c>
       <c r="AD3" t="n">
-        <v>-573.6437420104169</v>
+        <v>-559.1965160614246</v>
       </c>
       <c r="AE3" t="n">
-        <v>-232.8128876427589</v>
+        <v>-226.9494916963054</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.1975978762962697</v>
+        <v>0.1926213709204967</v>
       </c>
       <c r="AG3" t="n">
-        <v>-232.7260121966265</v>
+        <v>-226.8648042095418</v>
       </c>
       <c r="AH3" t="n">
-        <v>-475.8057781415671</v>
+        <v>-463.8226027293225</v>
       </c>
       <c r="AI3" t="n">
-        <v>243.0797659449406</v>
+        <v>236.9577985197806</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-4039.894569441421</v>
+        <v>-3938.149766211671</v>
       </c>
       <c r="AK3" t="n">
-        <v>-321.9760937682489</v>
+        <v>-313.8671211844265</v>
       </c>
       <c r="AL3" t="n">
-        <v>-3693.270892986823</v>
+        <v>-3600.255812067754</v>
       </c>
       <c r="AM3" t="n">
-        <v>-3698.73420881869</v>
+        <v>-3605.581534211285</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.463315831866577</v>
+        <v>5.325722143531348</v>
       </c>
       <c r="AO3" t="n">
-        <v>939.7681924318598</v>
+        <v>916.1001168974586</v>
       </c>
       <c r="AP3" t="n">
-        <v>53.43179304935384</v>
+        <v>52.08611256770433</v>
       </c>
       <c r="AQ3" t="n">
-        <v>881.1781553250365</v>
+        <v>858.9856707235645</v>
       </c>
       <c r="AR3" t="n">
-        <v>1228.445188457779</v>
+        <v>1197.506778598372</v>
       </c>
       <c r="AS3" t="n">
-        <v>-347.2670331327421</v>
+        <v>-338.521107874808</v>
       </c>
       <c r="AT3" t="n">
-        <v>658.0827662330668</v>
+        <v>641.5089422363355</v>
       </c>
       <c r="AU3" t="n">
-        <v>40.64351153050298</v>
+        <v>39.61990410408224</v>
       </c>
       <c r="AV3" t="n">
-        <v>613.5884973433606</v>
+        <v>598.1352621529013</v>
       </c>
       <c r="AW3" t="n">
-        <v>819.0383951589364</v>
+        <v>798.4109013170421</v>
       </c>
       <c r="AX3" t="n">
-        <v>-205.4498978155757</v>
+        <v>-200.2756391641408</v>
       </c>
       <c r="AY3" t="n">
-        <v>456.0858641580016</v>
+        <v>444.5993350649807</v>
       </c>
       <c r="AZ3" t="n">
-        <v>21.4037505975204</v>
+        <v>20.86469682879186</v>
       </c>
       <c r="BA3" t="n">
-        <v>431.0350021781086</v>
+        <v>420.1793794067921</v>
       </c>
       <c r="BB3" t="n">
-        <v>759.488494031315</v>
+        <v>740.3607653116126</v>
       </c>
       <c r="BC3" t="n">
-        <v>-328.4534918532065</v>
+        <v>-320.1813859048205</v>
       </c>
       <c r="BD3" t="n">
-        <v>-4272.70745708418</v>
+        <v>-4165.099257907977</v>
       </c>
       <c r="BE3" t="n">
-        <v>-321.7784958919526</v>
+        <v>-313.674499813506</v>
       </c>
       <c r="BF3" t="n">
-        <v>-3925.99690518345</v>
+        <v>-3827.120616277296</v>
       </c>
       <c r="BG3" t="n">
-        <v>-4135.546065853977</v>
+        <v>-4031.392278302028</v>
       </c>
       <c r="BH3" t="n">
-        <v>209.549160670527</v>
+        <v>204.2716620247324</v>
       </c>
       <c r="BI3" t="n">
-        <v>-3100.126377009562</v>
+        <v>-3022.049649314213</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-268.5443007188951</v>
+        <v>-261.7810086167222</v>
       </c>
       <c r="BK3" t="n">
-        <v>-2812.092737661787</v>
+        <v>-2741.270141344189</v>
       </c>
       <c r="BL3" t="n">
-        <v>-2431.295066570386</v>
+        <v>-2370.062865113241</v>
       </c>
       <c r="BM3" t="n">
-        <v>-380.7976710914015</v>
+        <v>-371.2072762309488</v>
       </c>
       <c r="BN3" t="n">
-        <v>-3381.811803208353</v>
+        <v>-3296.640823975335</v>
       </c>
       <c r="BO3" t="n">
-        <v>-281.332582237746</v>
+        <v>-274.2472170803442</v>
       </c>
       <c r="BP3" t="n">
-        <v>-3079.682395643462</v>
+        <v>-3002.120549914852</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-2840.701867720858</v>
+        <v>-2769.158750048458</v>
       </c>
       <c r="BR3" t="n">
-        <v>-238.9805279226038</v>
+        <v>-232.961799866394</v>
       </c>
       <c r="BS3" t="n">
-        <v>-3583.808705283419</v>
+        <v>-3493.550431146691</v>
       </c>
       <c r="BT3" t="n">
-        <v>-300.5723431707285</v>
+        <v>-293.0024243556346</v>
       </c>
       <c r="BU3" t="n">
-        <v>-3262.235890808714</v>
+        <v>-3180.076432660961</v>
       </c>
       <c r="BV3" t="n">
-        <v>-2900.252558825109</v>
+        <v>-2827.209656134944</v>
       </c>
       <c r="BW3" t="n">
-        <v>-361.9833319836058</v>
+        <v>-352.8667765260179</v>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-19.94617240771698</v>
+        <v>-19.44382776680462</v>
       </c>
       <c r="D4" t="n">
         <v>0.1287313130712185</v>
@@ -1353,184 +1353,184 @@
         <v>-0.8228446265403196</v>
       </c>
       <c r="P4" t="n">
-        <v>87.47213385246265</v>
+        <v>85.26914689477687</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.1304463654121835</v>
+        <v>-0.1271610718103919</v>
       </c>
       <c r="R4" t="n">
-        <v>87.6431028232728</v>
+        <v>85.4358100095815</v>
       </c>
       <c r="S4" t="n">
-        <v>-83.51382229840999</v>
+        <v>-81.41052547453006</v>
       </c>
       <c r="T4" t="n">
-        <v>171.1569251216828</v>
+        <v>166.8463354841116</v>
       </c>
       <c r="U4" t="n">
-        <v>66.45898113880799</v>
+        <v>64.78521073648965</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.09910964963055326</v>
+        <v>-0.09661357166948303</v>
       </c>
       <c r="W4" t="n">
-        <v>66.58887877712968</v>
+        <v>64.91183690090926</v>
       </c>
       <c r="X4" t="n">
-        <v>-63.45156218918074</v>
+        <v>-61.85353367665672</v>
       </c>
       <c r="Y4" t="n">
-        <v>130.0404409663104</v>
+        <v>126.765370577566</v>
       </c>
       <c r="Z4" t="n">
-        <v>107.9520327192171</v>
+        <v>105.2332592120196</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.1407114829240107</v>
+        <v>-0.1371676621890431</v>
       </c>
       <c r="AB4" t="n">
-        <v>108.0759114058302</v>
+        <v>105.3540180121166</v>
       </c>
       <c r="AC4" t="n">
-        <v>-59.56051484222158</v>
+        <v>-58.06048241347375</v>
       </c>
       <c r="AD4" t="n">
-        <v>167.6364262480518</v>
+        <v>163.4145004255903</v>
       </c>
       <c r="AE4" t="n">
-        <v>18.18082503655021</v>
+        <v>17.72294069474323</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.002222629870217754</v>
+        <v>0.002166652904752258</v>
       </c>
       <c r="AG4" t="n">
-        <v>18.16610430666379</v>
+        <v>17.70859070665216</v>
       </c>
       <c r="AH4" t="n">
-        <v>22.55788026345987</v>
+        <v>21.98975972238266</v>
       </c>
       <c r="AI4" t="n">
-        <v>-4.391775956796083</v>
+        <v>-4.281169015730503</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-685.250710245122</v>
+        <v>-667.9926611850508</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.376221815405166</v>
+        <v>1.341561649056259</v>
       </c>
       <c r="AL4" t="n">
-        <v>-686.2023338876548</v>
+        <v>-668.9203181723667</v>
       </c>
       <c r="AM4" t="n">
-        <v>189.3430338543384</v>
+        <v>184.5744268049973</v>
       </c>
       <c r="AN4" t="n">
-        <v>-875.5453677419932</v>
+        <v>-853.494744977364</v>
       </c>
       <c r="AO4" t="n">
-        <v>105.6529588890127</v>
+        <v>102.9920875895199</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.128223735541966</v>
+        <v>-0.1249944189056399</v>
       </c>
       <c r="AQ4" t="n">
-        <v>105.8092071299365</v>
+        <v>103.1444007162335</v>
       </c>
       <c r="AR4" t="n">
-        <v>-60.67661057841485</v>
+        <v>-59.14846926238974</v>
       </c>
       <c r="AS4" t="n">
-        <v>166.4858177083513</v>
+        <v>162.2928699786232</v>
       </c>
       <c r="AT4" t="n">
-        <v>84.63980617535853</v>
+        <v>82.5081514312332</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.09688701976033584</v>
+        <v>-0.09444691876473112</v>
       </c>
       <c r="AV4" t="n">
-        <v>84.7549830837938</v>
+        <v>82.62042760756174</v>
       </c>
       <c r="AW4" t="n">
-        <v>-40.68145337722493</v>
+        <v>-39.65689038484511</v>
       </c>
       <c r="AX4" t="n">
-        <v>125.4364364610187</v>
+        <v>122.2773179924068</v>
       </c>
       <c r="AY4" t="n">
-        <v>126.1328577557668</v>
+        <v>122.9561999067623</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0.138488853053793</v>
+        <v>-0.1350010092842909</v>
       </c>
       <c r="BA4" t="n">
-        <v>126.2420157124934</v>
+        <v>123.0626087187682</v>
       </c>
       <c r="BB4" t="n">
-        <v>-36.90252540705442</v>
+        <v>-35.97313477032285</v>
       </c>
       <c r="BC4" t="n">
-        <v>163.1445411195479</v>
+        <v>159.0357434890911</v>
       </c>
       <c r="BD4" t="n">
-        <v>-667.0698852085717</v>
+        <v>-650.2697204903075</v>
       </c>
       <c r="BE4" t="n">
-        <v>1.378444445275384</v>
+        <v>1.343728301961012</v>
       </c>
       <c r="BF4" t="n">
-        <v>-668.0362295809909</v>
+        <v>-651.2117274657145</v>
       </c>
       <c r="BG4" t="n">
-        <v>210.0512678987585</v>
+        <v>204.7611236751498</v>
       </c>
       <c r="BH4" t="n">
-        <v>-878.0874974797495</v>
+        <v>-855.9728511408642</v>
       </c>
       <c r="BI4" t="n">
-        <v>-579.5977513561094</v>
+        <v>-565.0005735955308</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1.247998079863201</v>
+        <v>1.21656723015062</v>
       </c>
       <c r="BK4" t="n">
-        <v>-580.3931267577184</v>
+        <v>-565.7759174561331</v>
       </c>
       <c r="BL4" t="n">
-        <v>126.8167755065321</v>
+        <v>123.6228931790714</v>
       </c>
       <c r="BM4" t="n">
-        <v>-707.2099022642504</v>
+        <v>-689.3988106352045</v>
       </c>
       <c r="BN4" t="n">
-        <v>-600.610904069763</v>
+        <v>-585.484509753817</v>
       </c>
       <c r="BO4" t="n">
-        <v>1.27933479564483</v>
+        <v>1.247114730291527</v>
       </c>
       <c r="BP4" t="n">
-        <v>-601.4473508038606</v>
+        <v>-586.2998905648044</v>
       </c>
       <c r="BQ4" t="n">
-        <v>146.8119330801579</v>
+        <v>143.1144724196722</v>
       </c>
       <c r="BR4" t="n">
-        <v>-748.2592838840185</v>
+        <v>-729.4143629844765</v>
       </c>
       <c r="BS4" t="n">
-        <v>-559.1178524893547</v>
+        <v>-545.0364612782879</v>
       </c>
       <c r="BT4" t="n">
-        <v>1.237732962351373</v>
+        <v>1.206560639771968</v>
       </c>
       <c r="BU4" t="n">
-        <v>-559.9603181751609</v>
+        <v>-545.8577094535979</v>
       </c>
       <c r="BV4" t="n">
-        <v>150.5908985222534</v>
+        <v>146.7982645623884</v>
       </c>
       <c r="BW4" t="n">
-        <v>-710.5512166974142</v>
+        <v>-692.6559740159863</v>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>71.43296813034826</v>
+        <v>69.63392779362381</v>
       </c>
       <c r="D5" t="n">
         <v>0.7418484223800728</v>
@@ -1594,184 +1594,184 @@
         <v>-0.06402549296881298</v>
       </c>
       <c r="P5" t="n">
-        <v>504.0814309473255</v>
+        <v>491.3861328097315</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.724392073741249</v>
+        <v>8.504668133033382</v>
       </c>
       <c r="R5" t="n">
-        <v>496.7080002339733</v>
+        <v>484.1984020556635</v>
       </c>
       <c r="S5" t="n">
-        <v>290.8297406999956</v>
+        <v>283.5051894692017</v>
       </c>
       <c r="T5" t="n">
-        <v>205.8782595339777</v>
+        <v>200.6932125864619</v>
       </c>
       <c r="U5" t="n">
-        <v>382.9875508497041</v>
+        <v>373.3420038358288</v>
       </c>
       <c r="V5" t="n">
-        <v>6.628559093508629</v>
+        <v>6.461618736755941</v>
       </c>
       <c r="W5" t="n">
-        <v>377.3854159625693</v>
+        <v>367.8809587969463</v>
       </c>
       <c r="X5" t="n">
-        <v>220.9646363993618</v>
+        <v>215.399638832038</v>
       </c>
       <c r="Y5" t="n">
-        <v>156.4207795632075</v>
+        <v>152.4813199649084</v>
       </c>
       <c r="Z5" t="n">
-        <v>555.8918084869292</v>
+        <v>541.891665240777</v>
       </c>
       <c r="AA5" t="n">
-        <v>11.41639933593359</v>
+        <v>11.12887715334669</v>
       </c>
       <c r="AB5" t="n">
-        <v>544.3833224106476</v>
+        <v>530.6730205529714</v>
       </c>
       <c r="AC5" t="n">
-        <v>202.3908269455804</v>
+        <v>197.293611038302</v>
       </c>
       <c r="AD5" t="n">
-        <v>341.9924954650672</v>
+        <v>333.3794095146694</v>
       </c>
       <c r="AE5" t="n">
-        <v>-282.5401502316574</v>
+        <v>-275.4243724568432</v>
       </c>
       <c r="AF5" t="n">
-        <v>-7.506339894983877</v>
+        <v>-7.317292616035618</v>
       </c>
       <c r="AG5" t="n">
-        <v>-275.0692559628038</v>
+        <v>-268.1416327683306</v>
       </c>
       <c r="AH5" t="n">
-        <v>-73.2878635268786</v>
+        <v>-71.44210762273333</v>
       </c>
       <c r="AI5" t="n">
-        <v>-201.7813924359252</v>
+        <v>-196.6995251455972</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-316.8565861343145</v>
+        <v>-308.876548424384</v>
       </c>
       <c r="AK5" t="n">
-        <v>-5.772653821019779</v>
+        <v>-5.627269450948378</v>
       </c>
       <c r="AL5" t="n">
-        <v>-310.4684092941474</v>
+        <v>-302.6492579104384</v>
       </c>
       <c r="AM5" t="n">
-        <v>-677.2477389451474</v>
+        <v>-660.1912448331503</v>
       </c>
       <c r="AN5" t="n">
-        <v>366.779329651</v>
+        <v>357.5419869227119</v>
       </c>
       <c r="AO5" t="n">
-        <v>221.5412807156678</v>
+        <v>215.9617603528879</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.218052178757373</v>
+        <v>1.187375516997764</v>
       </c>
       <c r="AQ5" t="n">
-        <v>221.6387442711691</v>
+        <v>216.0567692873327</v>
       </c>
       <c r="AR5" t="n">
-        <v>216.5415110565197</v>
+        <v>211.087909965003</v>
       </c>
       <c r="AS5" t="n">
-        <v>5.097233214649446</v>
+        <v>4.968859322329678</v>
       </c>
       <c r="AT5" t="n">
-        <v>100.4474006180466</v>
+        <v>97.91763137898545</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0.8777808014752458</v>
+        <v>-0.8556738792796754</v>
       </c>
       <c r="AV5" t="n">
-        <v>102.3161599997654</v>
+        <v>99.73932602861576</v>
       </c>
       <c r="AW5" t="n">
-        <v>146.9167215287379</v>
+        <v>143.2166217696573</v>
       </c>
       <c r="AX5" t="n">
-        <v>-44.60056152897251</v>
+        <v>-43.47729574104158</v>
       </c>
       <c r="AY5" t="n">
-        <v>273.3516582552713</v>
+        <v>266.4672927839333</v>
       </c>
       <c r="AZ5" t="n">
-        <v>3.910059440949715</v>
+        <v>3.811584537311065</v>
       </c>
       <c r="BA5" t="n">
-        <v>269.3140664478433</v>
+        <v>262.5313877846404</v>
       </c>
       <c r="BB5" t="n">
-        <v>128.744443742548</v>
+        <v>125.5020130626503</v>
       </c>
       <c r="BC5" t="n">
-        <v>140.5696227052953</v>
+        <v>137.0293747219901</v>
       </c>
       <c r="BD5" t="n">
-        <v>-599.3967363659722</v>
+        <v>-584.3009208812275</v>
       </c>
       <c r="BE5" t="n">
-        <v>-13.27899371600366</v>
+        <v>-12.944562066984</v>
       </c>
       <c r="BF5" t="n">
-        <v>-585.5376652569514</v>
+        <v>-570.7908906787691</v>
       </c>
       <c r="BG5" t="n">
-        <v>-743.9114884958542</v>
+        <v>-725.1760668861201</v>
       </c>
       <c r="BH5" t="n">
-        <v>158.3738232389028</v>
+        <v>154.3851762073509</v>
       </c>
       <c r="BI5" t="n">
-        <v>-95.31530541864758</v>
+        <v>-92.91478807149696</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-4.554601642262408</v>
+        <v>-4.439893933950616</v>
       </c>
       <c r="BK5" t="n">
-        <v>-88.82966502297916</v>
+        <v>-86.59248862310663</v>
       </c>
       <c r="BL5" t="n">
-        <v>-454.0821083602015</v>
+        <v>-442.646043885963</v>
       </c>
       <c r="BM5" t="n">
-        <v>365.2524433372224</v>
+        <v>356.0535552628564</v>
       </c>
       <c r="BN5" t="n">
-        <v>-216.4091855162681</v>
+        <v>-210.9589170453987</v>
       </c>
       <c r="BO5" t="n">
-        <v>-6.650434622495025</v>
+        <v>-6.482943330228054</v>
       </c>
       <c r="BP5" t="n">
-        <v>-208.1522492943821</v>
+        <v>-202.9099318818228</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-523.7068992217834</v>
+        <v>-510.517333381517</v>
       </c>
       <c r="BR5" t="n">
-        <v>315.5546499274013</v>
+        <v>307.6074014996942</v>
       </c>
       <c r="BS5" t="n">
-        <v>-43.5049278790434</v>
+        <v>-42.40925564045086</v>
       </c>
       <c r="BT5" t="n">
-        <v>-1.862594380070064</v>
+        <v>-1.815684913637313</v>
       </c>
       <c r="BU5" t="n">
-        <v>-41.15434284630422</v>
+        <v>-40.1178701257981</v>
       </c>
       <c r="BV5" t="n">
-        <v>-541.8793112056914</v>
+        <v>-528.2320729064706</v>
       </c>
       <c r="BW5" t="n">
-        <v>500.7249683593872</v>
+        <v>488.1142027806725</v>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22.14866148088394</v>
+        <v>21.59084712077145</v>
       </c>
       <c r="D6" t="n">
         <v>0.5350812599375894</v>
@@ -1835,184 +1835,184 @@
         <v>-1.204772409297706</v>
       </c>
       <c r="P6" t="n">
-        <v>363.5844183870885</v>
+        <v>354.4275395452448</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.293677442643196</v>
+        <v>8.084801056156355</v>
       </c>
       <c r="R6" t="n">
-        <v>355.2907409444452</v>
+        <v>346.3427384890885</v>
       </c>
       <c r="S6" t="n">
-        <v>84.58672856118487</v>
+        <v>82.45641057754108</v>
       </c>
       <c r="T6" t="n">
-        <v>270.7040123832604</v>
+        <v>263.8863279115474</v>
       </c>
       <c r="U6" t="n">
-        <v>276.2416890927614</v>
+        <v>269.2845381529331</v>
       </c>
       <c r="V6" t="n">
-        <v>6.301313669352917</v>
+        <v>6.142614993346159</v>
       </c>
       <c r="W6" t="n">
-        <v>269.9403754234085</v>
+        <v>263.141923159587</v>
       </c>
       <c r="X6" t="n">
-        <v>64.26672759033275</v>
+        <v>62.64816912537697</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6736478330757</v>
+        <v>200.49375403421</v>
       </c>
       <c r="Z6" t="n">
-        <v>262.8933679283035</v>
+        <v>256.2723946502881</v>
       </c>
       <c r="AA6" t="n">
-        <v>4.20463884519118</v>
+        <v>4.098744954991147</v>
       </c>
       <c r="AB6" t="n">
-        <v>258.6887290831123</v>
+        <v>252.1736496952969</v>
       </c>
       <c r="AC6" t="n">
-        <v>62.08889481331168</v>
+        <v>60.52518509838057</v>
       </c>
       <c r="AD6" t="n">
-        <v>196.5998342698006</v>
+        <v>191.6484645969164</v>
       </c>
       <c r="AE6" t="n">
-        <v>-18.20571251756893</v>
+        <v>-17.74720138419211</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.2763713873263914</v>
+        <v>0.2694109699346712</v>
       </c>
       <c r="AG6" t="n">
-        <v>-18.48208390489532</v>
+        <v>-18.01661235412678</v>
       </c>
       <c r="AH6" t="n">
-        <v>-25.32759784543916</v>
+        <v>-24.68972192695381</v>
       </c>
       <c r="AI6" t="n">
-        <v>6.845513940543853</v>
+        <v>6.67310957282703</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-1063.323082438041</v>
+        <v>-1036.543275209739</v>
       </c>
       <c r="AK6" t="n">
-        <v>-41.59401338548425</v>
+        <v>-40.54646755608238</v>
       </c>
       <c r="AL6" t="n">
-        <v>-1021.729069052557</v>
+        <v>-995.9968076536561</v>
       </c>
       <c r="AM6" t="n">
-        <v>-170.1847753148988</v>
+        <v>-165.8986692842883</v>
       </c>
       <c r="AN6" t="n">
-        <v>-851.5442937376583</v>
+        <v>-830.0981383693677</v>
       </c>
       <c r="AO6" t="n">
-        <v>345.3787058695196</v>
+        <v>336.6803381610529</v>
       </c>
       <c r="AP6" t="n">
-        <v>8.570048829969592</v>
+        <v>8.354212026091028</v>
       </c>
       <c r="AQ6" t="n">
-        <v>336.80865703955</v>
+        <v>328.3261261349618</v>
       </c>
       <c r="AR6" t="n">
-        <v>58.94895502161764</v>
+        <v>57.4643247358072</v>
       </c>
       <c r="AS6" t="n">
-        <v>277.8597020179324</v>
+        <v>270.8618013991546</v>
       </c>
       <c r="AT6" t="n">
-        <v>258.0359765751925</v>
+        <v>251.537336768741</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.577685056679311</v>
+        <v>6.412025963280834</v>
       </c>
       <c r="AV6" t="n">
-        <v>251.4582915185132</v>
+        <v>245.1253108054602</v>
       </c>
       <c r="AW6" t="n">
-        <v>38.70346657197339</v>
+        <v>37.7287192059254</v>
       </c>
       <c r="AX6" t="n">
-        <v>212.7548249465398</v>
+        <v>207.3965915995348</v>
       </c>
       <c r="AY6" t="n">
-        <v>244.6876554107346</v>
+        <v>238.525193266096</v>
       </c>
       <c r="AZ6" t="n">
-        <v>4.481010232517572</v>
+        <v>4.368155924925819</v>
       </c>
       <c r="BA6" t="n">
-        <v>240.206645178217</v>
+        <v>234.1570373411702</v>
       </c>
       <c r="BB6" t="n">
-        <v>36.65013357722526</v>
+        <v>35.72709943238262</v>
       </c>
       <c r="BC6" t="n">
-        <v>203.5565116009918</v>
+        <v>198.4299379087876</v>
       </c>
       <c r="BD6" t="n">
-        <v>-1081.52879495561</v>
+        <v>-1054.290476593931</v>
       </c>
       <c r="BE6" t="n">
-        <v>-41.31764199815786</v>
+        <v>-40.27705658614771</v>
       </c>
       <c r="BF6" t="n">
-        <v>-1040.211152957452</v>
+        <v>-1014.013420007783</v>
       </c>
       <c r="BG6" t="n">
-        <v>-193.458485971984</v>
+        <v>-188.5862312014675</v>
       </c>
       <c r="BH6" t="n">
-        <v>-846.7526669854685</v>
+        <v>-825.4271888063155</v>
       </c>
       <c r="BI6" t="n">
-        <v>-717.9443765685216</v>
+        <v>-699.8629370486856</v>
       </c>
       <c r="BJ6" t="n">
-        <v>-33.02396455551465</v>
+        <v>-32.19225552999134</v>
       </c>
       <c r="BK6" t="n">
-        <v>-684.920412013007</v>
+        <v>-667.6706815186942</v>
       </c>
       <c r="BL6" t="n">
-        <v>-109.1819313833832</v>
+        <v>-106.4321828605196</v>
       </c>
       <c r="BM6" t="n">
-        <v>-575.7384806296238</v>
+        <v>-561.2384986581746</v>
       </c>
       <c r="BN6" t="n">
-        <v>-805.2871058628488</v>
+        <v>-785.0059384409974</v>
       </c>
       <c r="BO6" t="n">
-        <v>-35.01632832880495</v>
+        <v>-34.13444159280155</v>
       </c>
       <c r="BP6" t="n">
-        <v>-770.2707775340439</v>
+        <v>-750.8714968481959</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-129.4274202465884</v>
+        <v>-126.1677887935467</v>
       </c>
       <c r="BR6" t="n">
-        <v>-640.8433572874555</v>
+        <v>-624.703708054649</v>
       </c>
       <c r="BS6" t="n">
-        <v>-818.6354270273068</v>
+        <v>-798.0180819436426</v>
       </c>
       <c r="BT6" t="n">
-        <v>-37.11300315296668</v>
+        <v>-36.17831163115656</v>
       </c>
       <c r="BU6" t="n">
-        <v>-781.5224238743402</v>
+        <v>-761.8397703124861</v>
       </c>
       <c r="BV6" t="n">
-        <v>-131.4807948509729</v>
+        <v>-128.1694491287866</v>
       </c>
       <c r="BW6" t="n">
-        <v>-650.0416290233674</v>
+        <v>-633.6703211836995</v>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4.527065827029297</v>
+        <v>4.413051608622874</v>
       </c>
       <c r="D7" t="n">
         <v>0.2698703991329864</v>
@@ -2076,184 +2076,184 @@
         <v>-0.01433693656299542</v>
       </c>
       <c r="P7" t="n">
-        <v>183.3752729820941</v>
+        <v>178.7569640767346</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.416999786223359</v>
+        <v>0.4064976405690953</v>
       </c>
       <c r="R7" t="n">
-        <v>178.4890193165255</v>
+        <v>173.9937707804872</v>
       </c>
       <c r="S7" t="n">
-        <v>18.56724955017292</v>
+        <v>18.09963310139486</v>
       </c>
       <c r="T7" t="n">
-        <v>159.9217697663526</v>
+        <v>155.8941376790923</v>
       </c>
       <c r="U7" t="n">
-        <v>139.32361395226</v>
+        <v>135.8147467174425</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3168252528770956</v>
+        <v>0.3088460042957019</v>
       </c>
       <c r="W7" t="n">
-        <v>135.6111694754034</v>
+        <v>132.1958002084923</v>
       </c>
       <c r="X7" t="n">
-        <v>14.1068982006978</v>
+        <v>13.75161576524292</v>
       </c>
       <c r="Y7" t="n">
-        <v>121.5042712747056</v>
+        <v>118.4441844432494</v>
       </c>
       <c r="Z7" t="n">
-        <v>85.72137411935331</v>
+        <v>83.56248007089717</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.3248899140148906</v>
+        <v>0.3167075568259639</v>
       </c>
       <c r="AB7" t="n">
-        <v>85.39215652572159</v>
+        <v>83.2415538271282</v>
       </c>
       <c r="AC7" t="n">
-        <v>13.2251474567512</v>
+        <v>12.89207192655052</v>
       </c>
       <c r="AD7" t="n">
-        <v>72.16700906897039</v>
+        <v>70.34948190057769</v>
       </c>
       <c r="AE7" t="n">
-        <v>-12.95690818452984</v>
+        <v>-12.6305882642842</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.03925355360320092</v>
+        <v>-0.03826495228730611</v>
       </c>
       <c r="AG7" t="n">
-        <v>-12.92494203245431</v>
+        <v>-12.59942718021157</v>
       </c>
       <c r="AH7" t="n">
-        <v>-5.081080752899933</v>
+        <v>-4.953113660563226</v>
       </c>
       <c r="AI7" t="n">
-        <v>-7.843861279554379</v>
+        <v>-7.646313519648343</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-82.50632596990904</v>
+        <v>-80.42840295565111</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0.3912746339596396</v>
+        <v>-0.3814203766376422</v>
       </c>
       <c r="AL7" t="n">
-        <v>-81.95277006574621</v>
+        <v>-79.8887883649502</v>
       </c>
       <c r="AM7" t="n">
-        <v>-42.89515683020034</v>
+        <v>-41.81484168430251</v>
       </c>
       <c r="AN7" t="n">
-        <v>-39.05761323554587</v>
+        <v>-38.07394668064769</v>
       </c>
       <c r="AO7" t="n">
-        <v>170.4183647975641</v>
+        <v>166.1263758124503</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.3777462326201581</v>
+        <v>0.3682326882817892</v>
       </c>
       <c r="AQ7" t="n">
-        <v>165.5640772840711</v>
+        <v>161.3943436002755</v>
       </c>
       <c r="AR7" t="n">
-        <v>13.42277057402261</v>
+        <v>13.08471790275183</v>
       </c>
       <c r="AS7" t="n">
-        <v>152.1413067100485</v>
+        <v>148.3096256975237</v>
       </c>
       <c r="AT7" t="n">
-        <v>126.3667057677303</v>
+        <v>123.1841584531584</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.2775716992738946</v>
+        <v>0.2705810520083958</v>
       </c>
       <c r="AV7" t="n">
-        <v>122.6862274429491</v>
+        <v>119.5963730282808</v>
       </c>
       <c r="AW7" t="n">
-        <v>8.977649178228299</v>
+        <v>8.751546953676717</v>
       </c>
       <c r="AX7" t="n">
-        <v>113.7085782647208</v>
+        <v>110.8448260746041</v>
       </c>
       <c r="AY7" t="n">
-        <v>72.76446593482346</v>
+        <v>70.93189180661297</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.2856363604116897</v>
+        <v>0.2784426045386578</v>
       </c>
       <c r="BA7" t="n">
-        <v>72.46721449326728</v>
+        <v>70.64212664691662</v>
       </c>
       <c r="BB7" t="n">
-        <v>8.121345511988267</v>
+        <v>7.916809307670365</v>
       </c>
       <c r="BC7" t="n">
-        <v>64.34586898127901</v>
+        <v>62.72531733924626</v>
       </c>
       <c r="BD7" t="n">
-        <v>-95.46323415443875</v>
+        <v>-93.05899121993519</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.4305281875628405</v>
+        <v>-0.4196853289249483</v>
       </c>
       <c r="BF7" t="n">
-        <v>-94.87771209820039</v>
+        <v>-92.48821554516165</v>
       </c>
       <c r="BG7" t="n">
-        <v>-47.55643422338052</v>
+        <v>-46.35872473883936</v>
       </c>
       <c r="BH7" t="n">
-        <v>-47.32127787481986</v>
+        <v>-46.12949080632229</v>
       </c>
       <c r="BI7" t="n">
-        <v>87.91203882765481</v>
+        <v>85.6979728567989</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-0.01352840133948152</v>
+        <v>-0.0131876883558531</v>
       </c>
       <c r="BK7" t="n">
-        <v>83.61130721832477</v>
+        <v>81.50555523532516</v>
       </c>
       <c r="BL7" t="n">
-        <v>-29.05258254458375</v>
+        <v>-28.32089283251202</v>
       </c>
       <c r="BM7" t="n">
-        <v>112.6638897629085</v>
+        <v>109.8264480678372</v>
       </c>
       <c r="BN7" t="n">
-        <v>43.86037979782142</v>
+        <v>42.75575549750745</v>
       </c>
       <c r="BO7" t="n">
-        <v>-0.1137029346857446</v>
+        <v>-0.1108393246292461</v>
       </c>
       <c r="BP7" t="n">
-        <v>40.73345737720304</v>
+        <v>39.70758466333072</v>
       </c>
       <c r="BQ7" t="n">
-        <v>-33.49770402490766</v>
+        <v>-32.65406386398786</v>
       </c>
       <c r="BR7" t="n">
-        <v>74.2311614021107</v>
+        <v>72.36164852731858</v>
       </c>
       <c r="BS7" t="n">
-        <v>-9.741860035085644</v>
+        <v>-9.496511149038206</v>
       </c>
       <c r="BT7" t="n">
-        <v>-0.1056382735479499</v>
+        <v>-0.1029777720989845</v>
       </c>
       <c r="BU7" t="n">
-        <v>-9.485555572478992</v>
+        <v>-9.246661718033636</v>
       </c>
       <c r="BV7" t="n">
-        <v>-34.35401619593084</v>
+        <v>-33.48880980058427</v>
       </c>
       <c r="BW7" t="n">
-        <v>24.86846062345184</v>
+        <v>24.24214808255063</v>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
